--- a/ProCarrier/ProCarrierService/OCT_RESULTS/HV_IE_REFUNDS.xlsx
+++ b/ProCarrier/ProCarrierService/OCT_RESULTS/HV_IE_REFUNDS.xlsx
@@ -473,10 +473,10 @@
         <v>143838</v>
       </c>
       <c r="D2" t="n">
-        <v>33082.74000000001</v>
+        <v>37062.19632</v>
       </c>
       <c r="E2" t="n">
-        <v>33082.74000000001</v>
+        <v>37062.19632</v>
       </c>
     </row>
   </sheetData>
